--- a/biology/Médecine/Scintigraphie_pulmonaire/Scintigraphie_pulmonaire.xlsx
+++ b/biology/Médecine/Scintigraphie_pulmonaire/Scintigraphie_pulmonaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La scintigraphie pulmonaire est une méthode d'exploration isotopique actuellement[Quand ?] très utilisée. Elle consiste à explorer la circulation pulmonaire et la ventilation pulmonaire.
 Cet examen ne nécessite pas d'être à jeun. Il représente une irradiation si faible qu'il peut même être réalisé, moyennant quelques aménagements techniques, chez les femmes enceintes. Il n'utilise pas de produits de contrastes iodés et peut donc être réalisé sans difficultés chez les patients diabétiques, allergiques, ou insuffisants rénaux. 
